--- a/Chonqqing Power Grid/data-output/大修合并删除增加电商等14-18-金额.xlsx
+++ b/Chonqqing Power Grid/data-output/大修合并删除增加电商等14-18-金额.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\chen_\git\Python-Practices\Chonqqing Power Grid\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -177,12 +172,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -190,15 +185,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -244,23 +232,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -302,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,10 +314,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,7 +348,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,17 +523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -589,16 +564,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>70761.600000000006</v>
+        <v>70761.60000000001</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3172.6399991200001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3172.63999912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -606,22 +581,22 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>765342.21000000043</v>
+        <v>765342.2100000004</v>
       </c>
       <c r="D3">
-        <v>930916.71999999974</v>
+        <v>930916.7199999997</v>
       </c>
       <c r="E3">
-        <v>277329.34000000003</v>
+        <v>277329.34</v>
       </c>
       <c r="F3">
-        <v>347041.38000000012</v>
+        <v>347041.3800000001</v>
       </c>
       <c r="G3">
-        <v>437578.88000000018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>437578.8800000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -635,16 +610,16 @@
         <v>3465615.459999999</v>
       </c>
       <c r="E4">
-        <v>5720114.0999999968</v>
+        <v>5720114.099999997</v>
       </c>
       <c r="F4">
         <v>4433464.370000002</v>
       </c>
       <c r="G4">
-        <v>5398759.1999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5398759.199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -667,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -690,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>5221161.6300000045</v>
+        <v>5221161.630000005</v>
       </c>
       <c r="D7">
         <v>3213797.959999999</v>
@@ -707,13 +682,13 @@
         <v>2034202.95</v>
       </c>
       <c r="F7">
-        <v>462794.66999999981</v>
+        <v>462794.6699999998</v>
       </c>
       <c r="G7">
-        <v>1692592.1199999989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1692592.119999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -736,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -759,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -782,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,10 +777,10 @@
         <v>219390.23</v>
       </c>
       <c r="G11">
-        <v>961361.27999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>961361.2799999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -813,22 +788,22 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>9090709.6437000018</v>
+        <v>9090709.643700002</v>
       </c>
       <c r="D12">
-        <v>10168954.002900001</v>
+        <v>10168954.0029</v>
       </c>
       <c r="E12">
         <v>7372815.742100032</v>
       </c>
       <c r="F12">
-        <v>7164888.9821000015</v>
+        <v>7164888.982100002</v>
       </c>
       <c r="G12">
-        <v>3121472.2391999988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3121472.239199999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -836,13 +811,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>2774681.9800000009</v>
+        <v>2774681.980000001</v>
       </c>
       <c r="D13">
-        <v>835025.77000000014</v>
+        <v>835025.7700000001</v>
       </c>
       <c r="E13">
-        <v>280161.52999999991</v>
+        <v>280161.5299999999</v>
       </c>
       <c r="F13">
         <v>213096.58</v>
@@ -851,7 +826,7 @@
         <v>159368.59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -874,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -894,10 +869,10 @@
         <v>52224.44</v>
       </c>
       <c r="G15">
-        <v>0.83799999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -905,13 +880,13 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>567423.34999999963</v>
+        <v>567423.3499999996</v>
       </c>
       <c r="D16">
-        <v>505183.34999999992</v>
+        <v>505183.3499999999</v>
       </c>
       <c r="E16">
-        <v>414239.97000000009</v>
+        <v>414239.9700000001</v>
       </c>
       <c r="F16">
         <v>200567.99</v>
@@ -920,7 +895,7 @@
         <v>49216.62999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -943,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -951,13 +926,13 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>2471933.7400000002</v>
+        <v>2471933.74</v>
       </c>
       <c r="D18">
         <v>3459987.21</v>
       </c>
       <c r="E18">
-        <v>4591819.0100000026</v>
+        <v>4591819.010000003</v>
       </c>
       <c r="F18">
         <v>1365563.93</v>
@@ -966,7 +941,7 @@
         <v>1054290.23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -989,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1012,7 +987,7 @@
         <v>143676</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1026,7 +1001,7 @@
         <v>91466.28000000013</v>
       </c>
       <c r="E21">
-        <v>28622.200000000092</v>
+        <v>28622.20000000009</v>
       </c>
       <c r="F21">
         <v>186478.2</v>
@@ -1035,7 +1010,7 @@
         <v>12396.48</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1049,16 +1024,16 @@
         <v>1754619.52</v>
       </c>
       <c r="E22">
-        <v>2259490.3199999998</v>
+        <v>2259490.32</v>
       </c>
       <c r="F22">
-        <v>341355.06999999989</v>
+        <v>341355.0699999999</v>
       </c>
       <c r="G22">
         <v>381043.52</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1081,7 +1056,7 @@
         <v>14040</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1095,7 +1070,7 @@
         <v>120784.62</v>
       </c>
       <c r="E24">
-        <v>296626.09999999992</v>
+        <v>296626.0999999999</v>
       </c>
       <c r="F24">
         <v>260406.07</v>
@@ -1104,7 +1079,7 @@
         <v>112198.32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1112,7 +1087,7 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>8498.64</v>
+        <v>8498.639999999999</v>
       </c>
       <c r="D25">
         <v>191732.12</v>
@@ -1127,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1135,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>5562.1200000000008</v>
+        <v>5562.120000000001</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1150,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1173,7 +1148,7 @@
         <v>19654399.98159999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1196,7 +1171,7 @@
         <v>78424.98</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1204,22 +1179,22 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>1784153.9999999991</v>
+        <v>1784153.999999999</v>
       </c>
       <c r="D29">
-        <v>2604747.4299999969</v>
+        <v>2604747.429999997</v>
       </c>
       <c r="E29">
         <v>4450694.770000007</v>
       </c>
       <c r="F29">
-        <v>806563.15999999957</v>
+        <v>806563.1599999996</v>
       </c>
       <c r="G29">
-        <v>558577.11999999988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>558577.1199999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1242,7 +1217,7 @@
         <v>135571.09</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1253,19 +1228,19 @@
         <v>159843.59</v>
       </c>
       <c r="D31">
-        <v>341030.61999999988</v>
+        <v>341030.6199999999</v>
       </c>
       <c r="E31">
-        <v>712046.83000000007</v>
+        <v>712046.8300000001</v>
       </c>
       <c r="F31">
         <v>254368.8000000001</v>
       </c>
       <c r="G31">
-        <v>5288881.3987999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5288881.3988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1273,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>14780069.739999991</v>
+        <v>14780069.73999999</v>
       </c>
       <c r="D32">
         <v>12859723.33</v>
@@ -1288,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1311,7 +1286,7 @@
         <v>16353.22</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1319,7 +1294,7 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>1868050.0799999989</v>
+        <v>1868050.079999999</v>
       </c>
       <c r="D34">
         <v>2460869.189999999</v>
@@ -1331,10 +1306,10 @@
         <v>469178.19</v>
       </c>
       <c r="G34">
-        <v>784242.81000000029</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>784242.8100000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1342,22 +1317,22 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>13951746.160000021</v>
+        <v>13951746.16000002</v>
       </c>
       <c r="D35">
-        <v>19963630.510000002</v>
+        <v>19963630.51</v>
       </c>
       <c r="E35">
-        <v>19569053.889999989</v>
+        <v>19569053.88999999</v>
       </c>
       <c r="F35">
-        <v>4966577.9000000013</v>
+        <v>4966577.900000001</v>
       </c>
       <c r="G35">
-        <v>8085151.6199999964</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8085151.619999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1368,7 +1343,7 @@
         <v>13912.47</v>
       </c>
       <c r="D36">
-        <v>263583.68999999989</v>
+        <v>263583.6899999999</v>
       </c>
       <c r="E36">
         <v>121410.59</v>
@@ -1377,10 +1352,10 @@
         <v>134856.68</v>
       </c>
       <c r="G36">
-        <v>311686.90000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>311686.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1403,7 +1378,7 @@
         <v>500006.48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1420,13 +1395,13 @@
         <v>246150.0799999999</v>
       </c>
       <c r="F38">
-        <v>52288.870000000017</v>
+        <v>52288.87000000002</v>
       </c>
       <c r="G38">
         <v>35272.76999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1434,22 +1409,22 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>757947.06000000017</v>
+        <v>757947.0600000002</v>
       </c>
       <c r="D39">
-        <v>349573.01999999979</v>
+        <v>349573.0199999998</v>
       </c>
       <c r="E39">
-        <v>536819.83000000042</v>
+        <v>536819.8300000004</v>
       </c>
       <c r="F39">
-        <v>90310.140000000014</v>
+        <v>90310.14000000001</v>
       </c>
       <c r="G39">
         <v>251546.41</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1472,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1480,10 +1455,10 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>43634.879999999997</v>
+        <v>43634.88</v>
       </c>
       <c r="D41">
-        <v>26825.179999999989</v>
+        <v>26825.17999999999</v>
       </c>
       <c r="E41">
         <v>6000.05</v>
@@ -1495,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1503,22 +1478,22 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>6799964.6299999924</v>
+        <v>6799964.629999992</v>
       </c>
       <c r="D42">
-        <v>7349803.5300000021</v>
+        <v>7349803.530000002</v>
       </c>
       <c r="E42">
-        <v>5715751.1400000043</v>
+        <v>5715751.140000004</v>
       </c>
       <c r="F42">
-        <v>3047982.8000000049</v>
+        <v>3047982.800000005</v>
       </c>
       <c r="G42">
-        <v>3214586.0399999991</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3214586.039999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1526,10 +1501,10 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>6693574.5599999856</v>
+        <v>6693574.559999986</v>
       </c>
       <c r="D43">
-        <v>5550891.7599999933</v>
+        <v>5550891.759999993</v>
       </c>
       <c r="E43">
         <v>2838410.930000002</v>
@@ -1538,10 +1513,10 @@
         <v>1004161.34</v>
       </c>
       <c r="G43">
-        <v>815344.43999999948</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>815344.4399999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1549,22 +1524,22 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>11525800.330000009</v>
+        <v>11525800.33000001</v>
       </c>
       <c r="D44">
-        <v>12315926.210000001</v>
+        <v>12315926.21</v>
       </c>
       <c r="E44">
         <v>10328635.89000001</v>
       </c>
       <c r="F44">
-        <v>2018017.0099999979</v>
+        <v>2018017.009999998</v>
       </c>
       <c r="G44">
-        <v>4840970.9599999879</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4840970.959999988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1572,22 +1547,22 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>132554740.03200001</v>
+        <v>2761557.084</v>
       </c>
       <c r="D45">
-        <v>23272.703999999991</v>
+        <v>484.8479999999998</v>
       </c>
       <c r="E45">
-        <v>21249840.456</v>
+        <v>442705.0095</v>
       </c>
       <c r="F45">
-        <v>189257256.30240011</v>
+        <v>3942859.5063</v>
       </c>
       <c r="G45">
-        <v>119999.8655999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2499.9972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1598,7 +1573,7 @@
         <v>26447.31</v>
       </c>
       <c r="D46">
-        <v>1091292.3500000001</v>
+        <v>1091292.35</v>
       </c>
       <c r="E46">
         <v>1672877.9</v>
@@ -1607,12 +1582,10 @@
         <v>554459.25</v>
       </c>
       <c r="G46">
-        <v>4977671.2932000011</v>
+        <v>4977671.293200001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>